--- a/aa.xlsx
+++ b/aa.xlsx
@@ -3739,9 +3739,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3752,15 +3752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3773,8 +3765,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3788,52 +3802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3849,7 +3819,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3857,7 +3834,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3865,14 +3856,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3886,9 +3870,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3896,7 +3880,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3917,79 +3917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4001,67 +3929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4079,13 +3947,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4097,7 +4097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4137,6 +4137,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -4158,201 +4208,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4686,8 +4686,8 @@
   <sheetPr/>
   <dimension ref="A1:J408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="F376" sqref="G397 F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15387,7 +15387,7 @@
         <v>226.36</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:10">
       <c r="A355" s="6">
         <v>44505</v>
       </c>
@@ -15409,11 +15409,17 @@
       <c r="G355" t="s">
         <v>1110</v>
       </c>
+      <c r="H355" s="7">
+        <v>-0.0303</v>
+      </c>
       <c r="I355" s="2" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="J355">
+        <v>-27300</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10">
       <c r="A356" s="6">
         <v>44505</v>
       </c>
@@ -15438,8 +15444,11 @@
       <c r="I356" s="2" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="J356">
+        <v>-10300</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357" s="6">
         <v>44505</v>
       </c>
@@ -15461,11 +15470,17 @@
       <c r="G357" t="s">
         <v>1110</v>
       </c>
+      <c r="H357" s="7">
+        <v>-0.006</v>
+      </c>
       <c r="I357" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="J357">
+        <v>-3862.86</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
       <c r="A358" s="6">
         <v>44505</v>
       </c>
@@ -15487,11 +15502,17 @@
       <c r="G358" t="s">
         <v>1110</v>
       </c>
+      <c r="H358" s="7">
+        <v>-0.0186</v>
+      </c>
       <c r="I358" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="J358">
+        <v>-2029.71</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
       <c r="A359" s="6">
         <v>44505</v>
       </c>
@@ -15513,11 +15534,17 @@
       <c r="G359" t="s">
         <v>1110</v>
       </c>
+      <c r="H359" s="7">
+        <v>0.0426</v>
+      </c>
       <c r="I359" s="2" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="J359">
+        <v>-4001.02</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
       <c r="A360" s="6">
         <v>44505</v>
       </c>
@@ -15539,11 +15566,17 @@
       <c r="G360" t="s">
         <v>1110</v>
       </c>
+      <c r="H360" s="7">
+        <v>-0.0495</v>
+      </c>
       <c r="I360" s="2" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="J360">
+        <v>-5405.04</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
       <c r="A361" s="6">
         <v>44505</v>
       </c>
@@ -15565,11 +15598,17 @@
       <c r="G361" t="s">
         <v>1110</v>
       </c>
+      <c r="H361" s="7">
+        <v>-0.0551</v>
+      </c>
       <c r="I361" s="2" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="J361">
+        <v>-3320.58</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
       <c r="A362" s="6">
         <v>44505</v>
       </c>
@@ -15591,11 +15630,17 @@
       <c r="G362" t="s">
         <v>1110</v>
       </c>
+      <c r="H362" s="7">
+        <v>-0.0756</v>
+      </c>
       <c r="I362" s="2" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="J362">
+        <v>-3406.44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363" s="6">
         <v>44505</v>
       </c>
@@ -15617,11 +15662,17 @@
       <c r="G363" t="s">
         <v>1110</v>
       </c>
+      <c r="H363" s="7">
+        <v>0.0127</v>
+      </c>
       <c r="I363" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="J363">
+        <v>-5897.24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364" s="6">
         <v>44505</v>
       </c>
@@ -15643,11 +15694,17 @@
       <c r="G364" t="s">
         <v>1110</v>
       </c>
+      <c r="H364" s="7">
+        <v>-0.0786</v>
+      </c>
       <c r="I364" s="2" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="365" s="1" customFormat="1" spans="1:9">
+      <c r="J364">
+        <v>-5474.55</v>
+      </c>
+    </row>
+    <row r="365" s="1" customFormat="1" spans="1:10">
       <c r="A365" s="3">
         <v>44505</v>
       </c>
@@ -15669,11 +15726,17 @@
       <c r="G365" s="1" t="s">
         <v>1110</v>
       </c>
+      <c r="H365" s="5">
+        <v>0.0138</v>
+      </c>
       <c r="I365" s="4" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="J365" s="1">
+        <v>-566.65</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366" s="6">
         <v>44505</v>
       </c>
@@ -15695,11 +15758,17 @@
       <c r="G366" t="s">
         <v>1110</v>
       </c>
+      <c r="H366" s="7">
+        <v>0.0893</v>
+      </c>
       <c r="I366" s="2" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="367" spans="1:9">
+      <c r="J366">
+        <v>1513.78</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367" s="6">
         <v>44505</v>
       </c>
@@ -15721,11 +15790,17 @@
       <c r="G367" t="s">
         <v>1110</v>
       </c>
+      <c r="H367" s="7">
+        <v>-0.0265</v>
+      </c>
       <c r="I367" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="368" spans="1:9">
+      <c r="J367">
+        <v>371.7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368" s="6">
         <v>44505</v>
       </c>
@@ -15747,11 +15822,17 @@
       <c r="G368" t="s">
         <v>1110</v>
       </c>
+      <c r="H368" s="7">
+        <v>-0.042</v>
+      </c>
       <c r="I368" s="2" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="369" spans="1:9">
+      <c r="J368">
+        <v>-794.26</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
       <c r="A369" s="6">
         <v>44505</v>
       </c>
@@ -15773,11 +15854,17 @@
       <c r="G369" t="s">
         <v>1110</v>
       </c>
+      <c r="H369" s="7">
+        <v>-0.0124</v>
+      </c>
       <c r="I369" s="2" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="370" spans="1:9">
+      <c r="J369">
+        <v>-2014.03</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
       <c r="A370" s="6">
         <v>44505</v>
       </c>
@@ -15799,11 +15886,17 @@
       <c r="G370" t="s">
         <v>1110</v>
       </c>
+      <c r="H370" s="7">
+        <v>-0.035</v>
+      </c>
       <c r="I370" s="2" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="371" spans="1:9">
+      <c r="J370">
+        <v>-2282.46</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
       <c r="A371" s="6">
         <v>44505</v>
       </c>
@@ -15825,11 +15918,17 @@
       <c r="G371" t="s">
         <v>1110</v>
       </c>
+      <c r="H371" s="7">
+        <v>-0.0523</v>
+      </c>
       <c r="I371" s="2" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="372" spans="1:9">
+      <c r="J371">
+        <v>-6283.93</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
       <c r="A372" s="6">
         <v>44505</v>
       </c>
@@ -15851,11 +15950,17 @@
       <c r="G372" t="s">
         <v>1110</v>
       </c>
+      <c r="H372" s="7">
+        <v>0.0563</v>
+      </c>
       <c r="I372" s="2" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="373" spans="1:9">
+      <c r="J372">
+        <v>-312.12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
       <c r="A373" s="6">
         <v>44505</v>
       </c>
@@ -15877,11 +15982,17 @@
       <c r="G373" t="s">
         <v>1110</v>
       </c>
+      <c r="H373" s="7">
+        <v>0.0598</v>
+      </c>
       <c r="I373" s="2" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="374" spans="1:9">
+      <c r="J373">
+        <v>-3070.81</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
       <c r="A374" s="6">
         <v>44505</v>
       </c>
@@ -15906,8 +16017,11 @@
       <c r="I374" s="2" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="375" spans="1:9">
+      <c r="J374">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
       <c r="A375" s="6">
         <v>44505</v>
       </c>
@@ -15932,8 +16046,11 @@
       <c r="I375" s="2" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="376" spans="1:9">
+      <c r="J375">
+        <v>1815.92</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
       <c r="A376" s="6">
         <v>44505</v>
       </c>
@@ -15955,11 +16072,17 @@
       <c r="G376" t="s">
         <v>1110</v>
       </c>
+      <c r="H376" s="7">
+        <v>-0.0228</v>
+      </c>
       <c r="I376" s="2" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="377" spans="1:9">
+      <c r="J376">
+        <v>-2268.63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10">
       <c r="A377" s="6">
         <v>44505</v>
       </c>
@@ -15981,11 +16104,17 @@
       <c r="G377" t="s">
         <v>1110</v>
       </c>
+      <c r="H377" s="7">
+        <v>-0.048</v>
+      </c>
       <c r="I377" s="2" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="378" spans="1:9">
+      <c r="J377">
+        <v>-136.66</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
       <c r="A378" s="6">
         <v>44505</v>
       </c>
@@ -16007,11 +16136,17 @@
       <c r="G378" t="s">
         <v>1110</v>
       </c>
+      <c r="H378" s="7">
+        <v>0.0089</v>
+      </c>
       <c r="I378" s="2" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="379" spans="1:9">
+      <c r="J378">
+        <v>-919.86</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
       <c r="A379" s="6">
         <v>44505</v>
       </c>
@@ -16036,8 +16171,11 @@
       <c r="I379" s="2" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="380" spans="1:9">
+      <c r="J379">
+        <v>754.26</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
       <c r="A380" s="6">
         <v>44505</v>
       </c>
@@ -16062,8 +16200,11 @@
       <c r="I380" s="2" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="381" spans="1:9">
+      <c r="J380">
+        <v>315.33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10">
       <c r="A381" s="6">
         <v>44505</v>
       </c>
@@ -16085,11 +16226,17 @@
       <c r="G381" t="s">
         <v>1110</v>
       </c>
+      <c r="H381" s="7">
+        <v>-0.0497</v>
+      </c>
       <c r="I381" s="2" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="382" spans="1:9">
+      <c r="J381">
+        <v>-836.72</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
       <c r="A382" s="6">
         <v>44505</v>
       </c>
@@ -16111,11 +16258,17 @@
       <c r="G382" t="s">
         <v>1110</v>
       </c>
+      <c r="H382" s="7">
+        <v>0.0603</v>
+      </c>
       <c r="I382" s="2" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="383" spans="1:9">
+      <c r="J382">
+        <v>-4503.95</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
       <c r="A383" s="6">
         <v>44505</v>
       </c>
@@ -16137,8 +16290,14 @@
       <c r="G383" t="s">
         <v>1110</v>
       </c>
+      <c r="H383" s="7">
+        <v>-0.0739</v>
+      </c>
       <c r="I383" s="2" t="s">
         <v>1169</v>
+      </c>
+      <c r="J383">
+        <v>-5495.09</v>
       </c>
     </row>
     <row r="384" spans="1:9">

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1354">
   <si>
     <t>002610</t>
   </si>
@@ -3732,6 +3732,351 @@
   </si>
   <si>
     <t>-4503.95</t>
+  </si>
+  <si>
+    <t>第三代半导体+光伏</t>
+  </si>
+  <si>
+    <t>浙江|新能源汽车|军工|央企国资改革</t>
+  </si>
+  <si>
+    <t>47600.00</t>
+  </si>
+  <si>
+    <t>磷化工+煤化工+可降解塑料</t>
+  </si>
+  <si>
+    <t>种业+乡村振兴</t>
+  </si>
+  <si>
+    <t>000966</t>
+  </si>
+  <si>
+    <t>长源电力</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>002017</t>
+  </si>
+  <si>
+    <t>东信和平</t>
+  </si>
+  <si>
+    <t>数字货币+5G</t>
+  </si>
+  <si>
+    <t>002647</t>
+  </si>
+  <si>
+    <t>仁东控股</t>
+  </si>
+  <si>
+    <t>区块链+金融科技</t>
+  </si>
+  <si>
+    <t>002254</t>
+  </si>
+  <si>
+    <t>泰和新材</t>
+  </si>
+  <si>
+    <t>化学纤维+军工</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>化工+氢能源</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>002993</t>
+  </si>
+  <si>
+    <t>奥海科技</t>
+  </si>
+  <si>
+    <t>储能+消费电子+第三代半导体+新能源汽车</t>
+  </si>
+  <si>
+    <t>7370.07</t>
+  </si>
+  <si>
+    <t>7027.26</t>
+  </si>
+  <si>
+    <t>002536</t>
+  </si>
+  <si>
+    <t>飞龙股份</t>
+  </si>
+  <si>
+    <t>汽车零部件+新能源汽车+军工</t>
+  </si>
+  <si>
+    <t>6725.83</t>
+  </si>
+  <si>
+    <t>6317.52</t>
+  </si>
+  <si>
+    <t>002606</t>
+  </si>
+  <si>
+    <t>大连电瓷</t>
+  </si>
+  <si>
+    <t>智能电网+特高压</t>
+  </si>
+  <si>
+    <t>5830.75</t>
+  </si>
+  <si>
+    <t>4929.86</t>
+  </si>
+  <si>
+    <t>拟投建海上风电项目+电力+芯片</t>
+  </si>
+  <si>
+    <t>4017.20</t>
+  </si>
+  <si>
+    <t>军工+量子科技+芯片</t>
+  </si>
+  <si>
+    <t>2994.47</t>
+  </si>
+  <si>
+    <t>002977</t>
+  </si>
+  <si>
+    <t>天箭科技</t>
+  </si>
+  <si>
+    <t>军工+卫星导航</t>
+  </si>
+  <si>
+    <t>2967.50</t>
+  </si>
+  <si>
+    <t>2517.52</t>
+  </si>
+  <si>
+    <t>军工+轨道交通</t>
+  </si>
+  <si>
+    <t>2095.55</t>
+  </si>
+  <si>
+    <t>002280</t>
+  </si>
+  <si>
+    <t>联络互动</t>
+  </si>
+  <si>
+    <t>跨境电商+手游</t>
+  </si>
+  <si>
+    <t>1717.59</t>
+  </si>
+  <si>
+    <t>002231</t>
+  </si>
+  <si>
+    <t>奥维通信</t>
+  </si>
+  <si>
+    <t>1454.12</t>
+  </si>
+  <si>
+    <t>1429.21</t>
+  </si>
+  <si>
+    <t>6天6板</t>
+  </si>
+  <si>
+    <t>1234天一字</t>
+  </si>
+  <si>
+    <t>1339.16</t>
+  </si>
+  <si>
+    <t>化工+染料</t>
+  </si>
+  <si>
+    <t>1321.03</t>
+  </si>
+  <si>
+    <t>973.14</t>
+  </si>
+  <si>
+    <t>860.11</t>
+  </si>
+  <si>
+    <t>002395</t>
+  </si>
+  <si>
+    <t>双象股份</t>
+  </si>
+  <si>
+    <t>体育产业+足球+化工</t>
+  </si>
+  <si>
+    <t>659.04</t>
+  </si>
+  <si>
+    <t>002268</t>
+  </si>
+  <si>
+    <t>卫士通</t>
+  </si>
+  <si>
+    <t>数字货币+网络安全</t>
+  </si>
+  <si>
+    <t>-3821.42</t>
+  </si>
+  <si>
+    <t>浙江|新能源汽车|江苏|化学制品</t>
+  </si>
+  <si>
+    <t>7天3板</t>
+  </si>
+  <si>
+    <t>9876.75</t>
+  </si>
+  <si>
+    <t>000727</t>
+  </si>
+  <si>
+    <t>冠捷科技</t>
+  </si>
+  <si>
+    <t>电竞显示器+MiniLED</t>
+  </si>
+  <si>
+    <t>7973.38</t>
+  </si>
+  <si>
+    <t>智能电网+区块链+富媒体</t>
+  </si>
+  <si>
+    <t>6160.32</t>
+  </si>
+  <si>
+    <t>000688</t>
+  </si>
+  <si>
+    <t>国城矿业</t>
+  </si>
+  <si>
+    <t>小金属+钴+黄金</t>
+  </si>
+  <si>
+    <t>5804.17</t>
+  </si>
+  <si>
+    <t>002943</t>
+  </si>
+  <si>
+    <t>宇晶股份</t>
+  </si>
+  <si>
+    <t>5142.19</t>
+  </si>
+  <si>
+    <t>4469.86</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>3392.29</t>
+  </si>
+  <si>
+    <t>000566</t>
+  </si>
+  <si>
+    <t>海南海药</t>
+  </si>
+  <si>
+    <t>医药+医疗器械</t>
+  </si>
+  <si>
+    <t>3175.24</t>
+  </si>
+  <si>
+    <t>002965</t>
+  </si>
+  <si>
+    <t>祥鑫科技</t>
+  </si>
+  <si>
+    <t>华为+新能源汽车+5G</t>
+  </si>
+  <si>
+    <t>2539.25</t>
+  </si>
+  <si>
+    <t>2088.96</t>
+  </si>
+  <si>
+    <t>1946.25</t>
+  </si>
+  <si>
+    <t>003002</t>
+  </si>
+  <si>
+    <t>壶化股份</t>
+  </si>
+  <si>
+    <t>1832.79</t>
+  </si>
+  <si>
+    <t>1449.24</t>
+  </si>
+  <si>
+    <t>002992</t>
+  </si>
+  <si>
+    <t>宝明科技</t>
+  </si>
+  <si>
+    <t>虚拟现实+消费电子+miniled</t>
+  </si>
+  <si>
+    <t>1332.70</t>
+  </si>
+  <si>
+    <t>002037</t>
+  </si>
+  <si>
+    <t>保利联合</t>
+  </si>
+  <si>
+    <t>民爆器材</t>
+  </si>
+  <si>
+    <t>1331.16</t>
+  </si>
+  <si>
+    <t>1126.19</t>
+  </si>
+  <si>
+    <t>7天7板</t>
+  </si>
+  <si>
+    <t>560.22</t>
+  </si>
+  <si>
+    <t>-7774.57</t>
   </si>
 </sst>
 </file>
@@ -3740,8 +4085,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3752,14 +4097,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3773,24 +4193,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3810,23 +4225,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3842,61 +4242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3917,7 +4262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3929,175 +4442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4108,15 +4453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4135,22 +4471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4170,17 +4501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4208,151 +4533,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4684,10 +5029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J408"/>
+  <dimension ref="A1:J455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="F376" sqref="G397 F376"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16300,7 +16645,7 @@
         <v>-5495.09</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:10">
       <c r="A384" s="6">
         <v>44508</v>
       </c>
@@ -16325,8 +16670,11 @@
       <c r="I384" s="2" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="385" spans="1:9">
+      <c r="J384">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
       <c r="A385" s="6">
         <v>44508</v>
       </c>
@@ -16348,11 +16696,17 @@
       <c r="G385" t="s">
         <v>1173</v>
       </c>
+      <c r="H385" s="7">
+        <v>-0.0776</v>
+      </c>
       <c r="I385" s="2" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="386" spans="1:9">
+      <c r="J385">
+        <v>-38400</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
       <c r="A386" s="6">
         <v>44508</v>
       </c>
@@ -16374,11 +16728,17 @@
       <c r="G386" t="s">
         <v>1173</v>
       </c>
+      <c r="H386" s="7">
+        <v>0.0343</v>
+      </c>
       <c r="I386" s="2" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="387" spans="1:9">
+      <c r="J386">
+        <v>4025.65</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
       <c r="A387" s="6">
         <v>44508</v>
       </c>
@@ -16400,11 +16760,17 @@
       <c r="G387" t="s">
         <v>1173</v>
       </c>
+      <c r="H387" s="7">
+        <v>-0.0463</v>
+      </c>
       <c r="I387" s="2" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="388" spans="1:9">
+      <c r="J387">
+        <v>-13200</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
       <c r="A388" s="6">
         <v>44508</v>
       </c>
@@ -16426,11 +16792,17 @@
       <c r="G388" t="s">
         <v>1173</v>
       </c>
+      <c r="H388" s="7">
+        <v>-0.0691</v>
+      </c>
       <c r="I388" s="2" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="389" spans="1:9">
+      <c r="J388">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
       <c r="A389" s="6">
         <v>44508</v>
       </c>
@@ -16455,8 +16827,11 @@
       <c r="I389" s="2" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="390" spans="1:9">
+      <c r="J389">
+        <v>-9661.68</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
       <c r="A390" s="6">
         <v>44508</v>
       </c>
@@ -16478,11 +16853,17 @@
       <c r="G390" t="s">
         <v>1173</v>
       </c>
+      <c r="H390" s="7">
+        <v>0.0076</v>
+      </c>
       <c r="I390" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="391" spans="1:9">
+      <c r="J390">
+        <v>-38100</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
       <c r="A391" s="6">
         <v>44508</v>
       </c>
@@ -16504,11 +16885,17 @@
       <c r="G391" t="s">
         <v>1173</v>
       </c>
+      <c r="H391" s="7">
+        <v>-0.0478</v>
+      </c>
       <c r="I391" s="2" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="392" spans="1:9">
+      <c r="J391">
+        <v>-5907.23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
       <c r="A392" s="6">
         <v>44508</v>
       </c>
@@ -16533,8 +16920,11 @@
       <c r="I392" s="2" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="393" spans="1:9">
+      <c r="J392">
+        <v>860.11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
       <c r="A393" s="6">
         <v>44508</v>
       </c>
@@ -16559,8 +16949,11 @@
       <c r="I393" s="2" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="394" spans="1:9">
+      <c r="J393">
+        <v>7027.26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
       <c r="A394" s="6">
         <v>44508</v>
       </c>
@@ -16582,11 +16975,17 @@
       <c r="G394" t="s">
         <v>1173</v>
       </c>
+      <c r="H394" s="7">
+        <v>-0.0293</v>
+      </c>
       <c r="I394" s="2" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="395" spans="1:9">
+      <c r="J394">
+        <v>-7406.79</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
       <c r="A395" s="6">
         <v>44508</v>
       </c>
@@ -16611,8 +17010,11 @@
       <c r="I395" s="2" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="396" spans="1:9">
+      <c r="J395">
+        <v>-713.7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
       <c r="A396" s="6">
         <v>44508</v>
       </c>
@@ -16634,11 +17036,17 @@
       <c r="G396" t="s">
         <v>1173</v>
       </c>
+      <c r="H396" s="7">
+        <v>-0.0125</v>
+      </c>
       <c r="I396" s="2" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="397" spans="1:9">
+      <c r="J396">
+        <v>-37.79</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
       <c r="A397" s="6">
         <v>44508</v>
       </c>
@@ -16660,11 +17068,17 @@
       <c r="G397" t="s">
         <v>1173</v>
       </c>
+      <c r="H397" s="7">
+        <v>0.1018</v>
+      </c>
       <c r="I397" s="2" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="398" spans="1:9">
+      <c r="J397">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
       <c r="A398" s="6">
         <v>44508</v>
       </c>
@@ -16686,11 +17100,17 @@
       <c r="G398" t="s">
         <v>1173</v>
       </c>
+      <c r="H398" s="7">
+        <v>-0.013</v>
+      </c>
       <c r="I398" s="2" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="399" spans="1:9">
+      <c r="J398">
+        <v>-995.05</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
       <c r="A399" s="6">
         <v>44508</v>
       </c>
@@ -16712,11 +17132,17 @@
       <c r="G399" t="s">
         <v>1173</v>
       </c>
+      <c r="H399" s="7">
+        <v>0.0793</v>
+      </c>
       <c r="I399" s="2" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="400" spans="1:9">
+      <c r="J399">
+        <v>-4969.96</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
       <c r="A400" s="6">
         <v>44508</v>
       </c>
@@ -16738,11 +17164,17 @@
       <c r="G400" t="s">
         <v>1173</v>
       </c>
+      <c r="H400" s="7">
+        <v>-0.0352</v>
+      </c>
       <c r="I400" s="2" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="401" spans="1:9">
+      <c r="J400">
+        <v>-724.75</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
       <c r="A401" s="6">
         <v>44508</v>
       </c>
@@ -16764,11 +17196,17 @@
       <c r="G401" t="s">
         <v>1173</v>
       </c>
+      <c r="H401" s="7">
+        <v>-0.029</v>
+      </c>
       <c r="I401" s="2" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="402" spans="1:9">
+      <c r="J401">
+        <v>-6401.21</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
       <c r="A402" s="6">
         <v>44508</v>
       </c>
@@ -16790,11 +17228,17 @@
       <c r="G402" t="s">
         <v>1173</v>
       </c>
+      <c r="H402" s="7">
+        <v>-0.0427</v>
+      </c>
       <c r="I402" s="2" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="403" spans="1:9">
+      <c r="J402">
+        <v>269.32</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
       <c r="A403" s="6">
         <v>44508</v>
       </c>
@@ -16819,8 +17263,11 @@
       <c r="I403" s="2" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="404" spans="1:9">
+      <c r="J403">
+        <v>2517.52</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
       <c r="A404" s="6">
         <v>44508</v>
       </c>
@@ -16842,11 +17289,17 @@
       <c r="G404" t="s">
         <v>1173</v>
       </c>
+      <c r="H404" s="7">
+        <v>-0.0438</v>
+      </c>
       <c r="I404" s="2" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="405" spans="1:9">
+      <c r="J404">
+        <v>-3874.83</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
       <c r="A405" s="6">
         <v>44508</v>
       </c>
@@ -16871,8 +17324,11 @@
       <c r="I405" s="2" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="406" spans="1:9">
+      <c r="J405">
+        <v>1429.21</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
       <c r="A406" s="6">
         <v>44508</v>
       </c>
@@ -16894,11 +17350,17 @@
       <c r="G406" t="s">
         <v>1173</v>
       </c>
+      <c r="H406" s="7">
+        <v>-0.0565</v>
+      </c>
       <c r="I406" s="2" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="407" spans="1:9">
+      <c r="J406">
+        <v>959.72</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
       <c r="A407" s="6">
         <v>44508</v>
       </c>
@@ -16923,8 +17385,11 @@
       <c r="I407" s="2" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="408" spans="1:9">
+      <c r="J407">
+        <v>1339.16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
       <c r="A408" s="6">
         <v>44508</v>
       </c>
@@ -16946,8 +17411,1320 @@
       <c r="G408" t="s">
         <v>1173</v>
       </c>
+      <c r="H408" s="7">
+        <v>0.0312</v>
+      </c>
       <c r="I408" s="2" t="s">
         <v>1238</v>
+      </c>
+      <c r="J408">
+        <v>-16500</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C409" t="s">
+        <v>466</v>
+      </c>
+      <c r="D409" t="s">
+        <v>2</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F409" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J409">
+        <v>-7280.79</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C410" t="s">
+        <v>172</v>
+      </c>
+      <c r="D410" t="s">
+        <v>2</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F410" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J410">
+        <v>-27400</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C411" t="s">
+        <v>168</v>
+      </c>
+      <c r="D411" t="s">
+        <v>2</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F411" t="s">
+        <v>16</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J411">
+        <v>-22100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2</v>
+      </c>
+      <c r="E412" t="s">
+        <v>375</v>
+      </c>
+      <c r="F412" t="s">
+        <v>16</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J412">
+        <v>-7060.96</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F413" t="s">
+        <v>16</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J413">
+        <v>-4055.24</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D414" t="s">
+        <v>2</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F414" t="s">
+        <v>16</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J414">
+        <v>-9503.49</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F415" t="s">
+        <v>33</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J415">
+        <v>1946.25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F416" t="s">
+        <v>9</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J416">
+        <v>-11200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="A417" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D417" t="s">
+        <v>2</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F417" t="s">
+        <v>33</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J417">
+        <v>-3427.65</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="A418" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C418" t="s">
+        <v>434</v>
+      </c>
+      <c r="D418" t="s">
+        <v>22</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F418" t="s">
+        <v>73</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J418">
+        <v>-18200</v>
+      </c>
+    </row>
+    <row r="419" s="1" customFormat="1" spans="1:10">
+      <c r="A419" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I419" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J419" s="1">
+        <v>-979.34</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10">
+      <c r="A420" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C420" t="s">
+        <v>879</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2</v>
+      </c>
+      <c r="E420" t="s">
+        <v>880</v>
+      </c>
+      <c r="F420" t="s">
+        <v>16</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J420">
+        <v>-1418.74</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10">
+      <c r="A421" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D421" t="s">
+        <v>2</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F421" t="s">
+        <v>33</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J421">
+        <v>-647.37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10">
+      <c r="A422" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D422" t="s">
+        <v>328</v>
+      </c>
+      <c r="E422" t="s">
+        <v>199</v>
+      </c>
+      <c r="F422" t="s">
+        <v>4</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J422">
+        <v>-3079.37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10">
+      <c r="A423" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C423" t="s">
+        <v>366</v>
+      </c>
+      <c r="D423" t="s">
+        <v>2</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F423" t="s">
+        <v>37</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J423">
+        <v>-1755.18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10">
+      <c r="A424" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C424" t="s">
+        <v>100</v>
+      </c>
+      <c r="D424" t="s">
+        <v>2</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F424" t="s">
+        <v>37</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J424">
+        <v>-7674.05</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10">
+      <c r="A425" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F425" t="s">
+        <v>33</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J425">
+        <v>-1246.31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10">
+      <c r="A426" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C426" t="s">
+        <v>91</v>
+      </c>
+      <c r="D426" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F426" t="s">
+        <v>164</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J426">
+        <v>2517.52</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10">
+      <c r="A427" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C427" t="s">
+        <v>439</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F427" t="s">
+        <v>4</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J427">
+        <v>-650.88</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10">
+      <c r="A428" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D428" t="s">
+        <v>2</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F428" t="s">
+        <v>63</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J428">
+        <v>-2400.87</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10">
+      <c r="A429" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D429" t="s">
+        <v>2</v>
+      </c>
+      <c r="E429" t="s">
+        <v>738</v>
+      </c>
+      <c r="F429" t="s">
+        <v>187</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J429">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="A430" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D430" t="s">
+        <v>22</v>
+      </c>
+      <c r="E430" t="s">
+        <v>139</v>
+      </c>
+      <c r="F430" t="s">
+        <v>73</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J430">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10">
+      <c r="A431" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C431" t="s">
+        <v>985</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J431">
+        <v>560.22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="A432" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C432" t="s">
+        <v>103</v>
+      </c>
+      <c r="D432" t="s">
+        <v>2</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F432" t="s">
+        <v>16</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I432" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J432">
+        <v>-1630.46</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10">
+      <c r="A433" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C433" t="s">
+        <v>241</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2</v>
+      </c>
+      <c r="E433" t="s">
+        <v>242</v>
+      </c>
+      <c r="F433" t="s">
+        <v>164</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J433">
+        <v>279.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10">
+      <c r="A434" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C434" t="s">
+        <v>137</v>
+      </c>
+      <c r="D434" t="s">
+        <v>22</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F434" t="s">
+        <v>37</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I434" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J434">
+        <v>-7774.57</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10">
+      <c r="A435" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F435" t="s">
+        <v>37</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J435">
+        <v>1449.24</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10">
+      <c r="A436" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F436" t="s">
+        <v>9</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J436">
+        <v>-1052.76</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C437" t="s">
+        <v>943</v>
+      </c>
+      <c r="D437" t="s">
+        <v>511</v>
+      </c>
+      <c r="E437" t="s">
+        <v>698</v>
+      </c>
+      <c r="F437" t="s">
+        <v>129</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C438" t="s">
+        <v>869</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E438" t="s">
+        <v>738</v>
+      </c>
+      <c r="F438" t="s">
+        <v>37</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F439" t="s">
+        <v>16</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C440" t="s">
+        <v>629</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F440" t="s">
+        <v>37</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D441" t="s">
+        <v>2</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F441" t="s">
+        <v>164</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D442" t="s">
+        <v>2</v>
+      </c>
+      <c r="E442" t="s">
+        <v>40</v>
+      </c>
+      <c r="F442" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F443" t="s">
+        <v>37</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C444" t="s">
+        <v>384</v>
+      </c>
+      <c r="D444" t="s">
+        <v>2</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F444" t="s">
+        <v>164</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F445" t="s">
+        <v>129</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F446" t="s">
+        <v>16</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C447" t="s">
+        <v>981</v>
+      </c>
+      <c r="D447" t="s">
+        <v>2</v>
+      </c>
+      <c r="E447" t="s">
+        <v>982</v>
+      </c>
+      <c r="F447" t="s">
+        <v>33</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D448" t="s">
+        <v>22</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F448" t="s">
+        <v>9</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2</v>
+      </c>
+      <c r="E449" t="s">
+        <v>138</v>
+      </c>
+      <c r="F449" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D450" t="s">
+        <v>22</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F450" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F451" t="s">
+        <v>16</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F452" t="s">
+        <v>164</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C453" t="s">
+        <v>828</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453" t="s">
+        <v>829</v>
+      </c>
+      <c r="F453" t="s">
+        <v>4</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C454" t="s">
+        <v>985</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C455" t="s">
+        <v>137</v>
+      </c>
+      <c r="D455" t="s">
+        <v>547</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F455" t="s">
+        <v>16</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
